--- a/src/main/resources/example.xlsx
+++ b/src/main/resources/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20565" windowHeight="11805"/>
+    <workbookView windowWidth="24525" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="二维码" sheetId="1" r:id="rId1"/>
@@ -52,28 +52,28 @@
     <t>L</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
   <si>
     <t>X</t>
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -128,14 +128,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,45 +235,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,66 +257,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -291,19 +291,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,157 +417,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +494,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -512,17 +521,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +542,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -553,6 +564,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,26 +591,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
@@ -599,10 +599,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,133 +611,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="30" customHeight="1"/>
@@ -1140,12 +1140,12 @@
     <col min="10" max="10" width="16.6666666666667" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.275" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.8833333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5416666666667" style="1" customWidth="1"/>
-    <col min="15" max="18" width="8.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.4916666666667" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.625" style="1" customWidth="1"/>
-    <col min="21" max="16383" width="8.625" style="1" customWidth="1"/>
+    <col min="13" max="17" width="8.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.4916666666667" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5416666666667" style="1" customWidth="1"/>
+    <col min="22" max="16383" width="8.625" style="1" customWidth="1"/>
     <col min="16384" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
@@ -1238,13 +1238,13 @@
       <c r="K2" s="5"/>
       <c r="L2" s="4"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5"/>
       <c r="W2" s="4"/>
@@ -1268,13 +1268,13 @@
       <c r="K3" s="5"/>
       <c r="L3" s="4"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="5"/>
       <c r="W3" s="4"/>
@@ -1298,13 +1298,13 @@
       <c r="K4" s="5"/>
       <c r="L4" s="4"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="5"/>
       <c r="W4" s="4"/>
@@ -1326,13 +1326,13 @@
       <c r="K5" s="5"/>
       <c r="L5" s="4"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="5"/>
       <c r="W5" s="4"/>
@@ -1354,13 +1354,13 @@
       <c r="K6" s="5"/>
       <c r="L6" s="4"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="5"/>
       <c r="W6" s="7"/>
@@ -1382,13 +1382,13 @@
       <c r="K7" s="5"/>
       <c r="L7" s="4"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="5"/>
       <c r="W7" s="4"/>
@@ -1410,13 +1410,13 @@
       <c r="K8" s="5"/>
       <c r="L8" s="4"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="5"/>
       <c r="W8" s="4"/>
@@ -1438,14 +1438,14 @@
       <c r="K9" s="5"/>
       <c r="L9" s="4"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="7"/>
       <c r="V9" s="5"/>
       <c r="W9" s="4"/>
       <c r="X9" s="5"/>
@@ -1466,13 +1466,13 @@
       <c r="K10" s="5"/>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="5"/>
       <c r="W10" s="4"/>
@@ -1494,13 +1494,13 @@
       <c r="K11" s="3"/>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="5"/>
       <c r="W11" s="4"/>
@@ -1522,13 +1522,13 @@
       <c r="K12" s="5"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="5"/>
       <c r="W12" s="4"/>
@@ -1550,13 +1550,13 @@
       <c r="K13" s="5"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="5"/>
       <c r="W13" s="4"/>
@@ -1569,25 +1569,25 @@
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="4"/>
       <c r="M14" s="5"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="5"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="7"/>
+      <c r="W14" s="4"/>
       <c r="X14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:24">
@@ -1603,16 +1603,16 @@
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="4"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="4"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="5"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="5"/>
       <c r="W15" s="4"/>
@@ -1623,9 +1623,9 @@
         <v>14</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
@@ -1634,13 +1634,13 @@
       <c r="K16" s="5"/>
       <c r="L16" s="4"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="3"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="7"/>
       <c r="U16" s="4"/>
       <c r="V16" s="5"/>
       <c r="W16" s="4"/>
@@ -1651,7 +1651,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
@@ -1662,19 +1662,19 @@
       <c r="K17" s="5"/>
       <c r="L17" s="4"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="5"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="6"/>
       <c r="W17" s="4"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" customHeight="1" spans="1:24">
+    <row r="18" customHeight="1" spans="1:33">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1684,25 +1684,26 @@
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
       <c r="K18" s="5"/>
       <c r="L18" s="4"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="Q18" s="5"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="6"/>
+      <c r="V18" s="5"/>
       <c r="W18" s="4"/>
       <c r="X18" s="5"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:33">
+      <c r="AG18" s="9"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:24">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1712,24 +1713,23 @@
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
       <c r="K19" s="5"/>
       <c r="L19" s="4"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="4"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="5"/>
+      <c r="T19" s="3"/>
       <c r="U19" s="4"/>
       <c r="V19" s="5"/>
       <c r="W19" s="4"/>
       <c r="X19" s="5"/>
-      <c r="AG19" s="9"/>
     </row>
     <row r="20" customHeight="1" spans="1:24">
       <c r="A20" s="1" t="s">
@@ -1745,16 +1745,16 @@
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="4"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="4"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+      <c r="U20" s="4"/>
       <c r="V20" s="5"/>
       <c r="W20" s="4"/>
       <c r="X20" s="5"/>
@@ -1770,21 +1770,21 @@
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="4"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="7"/>
+      <c r="L21" s="4"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="7"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="3"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="4"/>
       <c r="U21" s="3"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="4"/>
+      <c r="W21" s="7"/>
       <c r="X21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:24">
@@ -1803,13 +1803,13 @@
       <c r="K22" s="5"/>
       <c r="L22" s="4"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="3"/>
       <c r="W22" s="4"/>
@@ -1831,14 +1831,14 @@
       <c r="K23" s="5"/>
       <c r="L23" s="4"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="4"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="7"/>
       <c r="V23" s="5"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -1859,13 +1859,13 @@
       <c r="K24" s="5"/>
       <c r="L24" s="4"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="5"/>
       <c r="W24" s="3"/>
